--- a/Excel/Aula_exercicios.xlsx
+++ b/Excel/Aula_exercicios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrique.chagas\Documents\EXCEL_AVANÇADO\AULA 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noteb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5380D99-1089-4466-A18E-93CDC9B8A09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2D768B-F6A5-4CF8-852A-FE6F84973EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -18,24 +18,12 @@
     <sheet name="Medidas 1" sheetId="6" state="hidden" r:id="rId3"/>
     <sheet name="Medidas 2" sheetId="15" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="199">
   <si>
     <t>Sexo</t>
   </si>
@@ -607,6 +595,33 @@
   </si>
   <si>
     <t>Responda utilizando as funções SE+PROCV do Excel</t>
+  </si>
+  <si>
+    <t>Considerando que para ser alto é preciso altura maior que 1,85, o indíviduo de ID 38 é alto?(Retorne sim ou não)</t>
+  </si>
+  <si>
+    <t>Sabendo que IMC acima de 25 é considerado acima do peso, o indivíduo de ID 18 está acima do peso?(Retorne sim ou não)</t>
+  </si>
+  <si>
+    <t>O indivíduo de ID 42 mora em Santa Rita do Sapucaí?(Retorne sim ou não)</t>
+  </si>
+  <si>
+    <t>O indivíduo de ID 61 possui miopia?(Retorne sim ou não)</t>
+  </si>
+  <si>
+    <t>O indivíduo de ID 25 é do estado se São Paulo? (Retorne sim ou não)</t>
+  </si>
+  <si>
+    <t>O indivíduo de ID 29 possui tipo sanguíneo AB?(Retorne sim ou não)</t>
+  </si>
+  <si>
+    <t>O indíviduo de ID 35 possui alimentação do tipo Vegetariano? (Retorne sim ou não)</t>
+  </si>
+  <si>
+    <t>O indíviduo de ID 53 consome alcool frequentemente?(Retorne sim ou não)</t>
+  </si>
+  <si>
+    <t>O indíviduo de ID 70 pratica Musculação? (Retorne sim ou não)</t>
   </si>
 </sst>
 </file>
@@ -817,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -841,11 +856,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,24 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1351,8 +1359,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5257800" y="215900"/>
-          <a:ext cx="3956050" cy="2857500"/>
+          <a:off x="5361940" y="208280"/>
+          <a:ext cx="3956050" cy="2743200"/>
           <a:chOff x="2374900" y="209550"/>
           <a:chExt cx="3956050" cy="2857500"/>
         </a:xfrm>
@@ -1554,9 +1562,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1594,9 +1602,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1629,26 +1637,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1681,26 +1672,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1878,32 +1852,32 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P37" sqref="P37:T37"/>
+      <selection pane="bottomLeft" activeCell="P29" sqref="P29:T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="6" max="6" width="8" style="14" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="37.28515625" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" customWidth="1"/>
-    <col min="20" max="20" width="26.7109375" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="37.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.44140625" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" customWidth="1"/>
+    <col min="20" max="20" width="26.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>178</v>
       </c>
@@ -1950,7 +1924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -1998,7 +1972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -2046,7 +2020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2091,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2138,18 +2112,18 @@
       <c r="O5">
         <v>3</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
       <c r="U5" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2193,16 +2167,16 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
       <c r="U6" s="15"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -2249,16 +2223,16 @@
       <c r="O7">
         <v>2</v>
       </c>
-      <c r="P7" s="26" t="s">
+      <c r="P7" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
       <c r="U7" s="15"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -2302,16 +2276,16 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
       <c r="U8" s="15"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -2355,16 +2329,16 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="P9" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
       <c r="U9" s="15"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -2411,16 +2385,16 @@
       <c r="O10">
         <v>2</v>
       </c>
-      <c r="P10" s="25" t="s">
+      <c r="P10" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
       <c r="U10" s="15"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -2467,16 +2441,16 @@
       <c r="O11">
         <v>2</v>
       </c>
-      <c r="P11" s="22" t="s">
+      <c r="P11" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="20"/>
-    </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="15"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -2520,16 +2494,16 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="22" t="s">
+      <c r="P12" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="24"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="27"/>
       <c r="U12" s="15"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -2573,16 +2547,16 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="P13" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
       <c r="U13" s="15"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -2626,16 +2600,16 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="25" t="s">
+      <c r="P14" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
       <c r="U14" s="15"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -2679,16 +2653,16 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="25" t="s">
+      <c r="P15" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
       <c r="U15" s="15"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -2736,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -2783,18 +2757,18 @@
       <c r="O17">
         <v>2</v>
       </c>
-      <c r="P17" s="28" t="s">
+      <c r="P17" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
       <c r="U17" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -2838,19 +2812,19 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" s="26" t="s">
+      <c r="P18" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
       <c r="U18" s="15">
         <f>VLOOKUP(45, A2:O86, 5, FALSE)</f>
         <v>1.61</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -2894,16 +2868,16 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" s="29" t="s">
+      <c r="P19" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
       <c r="U19" s="15"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -2938,7 +2912,7 @@
       <c r="K20" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="20" t="s">
         <v>18</v>
       </c>
       <c r="M20" t="s">
@@ -2947,16 +2921,16 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20" s="26" t="s">
+      <c r="P20" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
       <c r="U20" s="15"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -3000,16 +2974,16 @@
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="P21" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
       <c r="U21" s="15"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -3056,16 +3030,16 @@
       <c r="O22">
         <v>3</v>
       </c>
-      <c r="P22" s="25" t="s">
+      <c r="P22" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
       <c r="U22" s="15"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -3109,16 +3083,16 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23" s="22" t="s">
+      <c r="P23" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="20"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="15"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -3165,16 +3139,16 @@
       <c r="O24">
         <v>5</v>
       </c>
-      <c r="P24" s="22" t="s">
+      <c r="P24" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="24"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="27"/>
       <c r="U24" s="15"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -3218,16 +3192,16 @@
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25" s="25" t="s">
+      <c r="P25" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
       <c r="U25" s="15"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -3274,16 +3248,16 @@
       <c r="O26">
         <v>3</v>
       </c>
-      <c r="P26" s="25" t="s">
+      <c r="P26" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
       <c r="U26" s="15"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -3328,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -3375,18 +3349,18 @@
       <c r="O28">
         <v>2</v>
       </c>
-      <c r="P28" s="28" t="s">
+      <c r="P28" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
       <c r="U28" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -3433,16 +3407,16 @@
       <c r="O29">
         <v>4</v>
       </c>
-      <c r="P29" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
+      <c r="P29" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
       <c r="U29" s="15"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -3486,16 +3460,16 @@
       <c r="O30">
         <v>0</v>
       </c>
-      <c r="P30" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
+      <c r="P30" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
       <c r="U30" s="15"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -3542,16 +3516,16 @@
       <c r="O31">
         <v>1</v>
       </c>
-      <c r="P31" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
+      <c r="P31" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
       <c r="U31" s="15"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -3598,16 +3572,16 @@
       <c r="O32">
         <v>7</v>
       </c>
-      <c r="P32" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
+      <c r="P32" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
       <c r="U32" s="15"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -3654,16 +3628,16 @@
       <c r="O33">
         <v>1</v>
       </c>
-      <c r="P33" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
+      <c r="P33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
       <c r="U33" s="15"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -3710,16 +3684,16 @@
       <c r="O34">
         <v>1</v>
       </c>
-      <c r="P34" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="20"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P34" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="15"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -3763,16 +3737,16 @@
       <c r="O35">
         <v>0</v>
       </c>
-      <c r="P35" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="24"/>
+      <c r="P35" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="27"/>
       <c r="U35" s="15"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -3819,16 +3793,16 @@
       <c r="O36">
         <v>3</v>
       </c>
-      <c r="P36" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
+      <c r="P36" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
       <c r="U36" s="15"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -3875,16 +3849,16 @@
       <c r="O37">
         <v>7</v>
       </c>
-      <c r="P37" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
+      <c r="P37" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
       <c r="U37" s="15"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>37</v>
       </c>
@@ -3932,7 +3906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -3977,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>39</v>
       </c>
@@ -4025,7 +3999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -4073,7 +4047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>41</v>
       </c>
@@ -4121,7 +4095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -4169,7 +4143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>43</v>
       </c>
@@ -4217,7 +4191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -4265,7 +4239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
         <v>45</v>
       </c>
@@ -4310,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -4358,7 +4332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
         <v>47</v>
       </c>
@@ -4406,7 +4380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -4454,7 +4428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
         <v>49</v>
       </c>
@@ -4499,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -4544,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
         <v>51</v>
       </c>
@@ -4589,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>52</v>
       </c>
@@ -4637,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
         <v>53</v>
       </c>
@@ -4685,7 +4659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <v>54</v>
       </c>
@@ -4733,7 +4707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="17">
         <v>55</v>
       </c>
@@ -4781,7 +4755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="18">
         <v>56</v>
       </c>
@@ -4829,7 +4803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="17">
         <v>57</v>
       </c>
@@ -4874,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
         <v>58</v>
       </c>
@@ -4919,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="17">
         <v>59</v>
       </c>
@@ -4964,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="18">
         <v>60</v>
       </c>
@@ -5012,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="17">
         <v>61</v>
       </c>
@@ -5060,7 +5034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
         <v>62</v>
       </c>
@@ -5108,7 +5082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>63</v>
       </c>
@@ -5156,7 +5130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
         <v>64</v>
       </c>
@@ -5201,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>65</v>
       </c>
@@ -5249,7 +5223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="18">
         <v>66</v>
       </c>
@@ -5294,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="17">
         <v>67</v>
       </c>
@@ -5342,7 +5316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="18">
         <v>68</v>
       </c>
@@ -5390,7 +5364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
         <v>69</v>
       </c>
@@ -5435,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="18">
         <v>70</v>
       </c>
@@ -5480,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="17">
         <v>71</v>
       </c>
@@ -5525,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="18">
         <v>72</v>
       </c>
@@ -5573,7 +5547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>73</v>
       </c>
@@ -5621,7 +5595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
         <v>74</v>
       </c>
@@ -5666,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="17">
         <v>75</v>
       </c>
@@ -5711,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
         <v>76</v>
       </c>
@@ -5756,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="17">
         <v>77</v>
       </c>
@@ -5804,7 +5778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>78</v>
       </c>
@@ -5852,7 +5826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="17">
         <v>79</v>
       </c>
@@ -5900,7 +5874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>80</v>
       </c>
@@ -5948,7 +5922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="17">
         <v>81</v>
       </c>
@@ -5996,7 +5970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
         <v>82</v>
       </c>
@@ -6044,7 +6018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="17">
         <v>83</v>
       </c>
@@ -6092,7 +6066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
         <v>84</v>
       </c>
@@ -6140,7 +6114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="17">
         <v>85</v>
       </c>
@@ -6190,12 +6164,20 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="P28:T28"/>
     <mergeCell ref="P22:T22"/>
     <mergeCell ref="P11:T11"/>
     <mergeCell ref="P12:T12"/>
@@ -6207,20 +6189,12 @@
     <mergeCell ref="P19:T19"/>
     <mergeCell ref="P20:T20"/>
     <mergeCell ref="P21:T21"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERRO" error="Dado inválido" promptTitle="Sexo" prompt="F - Feminino_x000a_M - Masculino" sqref="B2:B86" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -6267,13 +6241,13 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="11"/>
+    <col min="1" max="1" width="19.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
@@ -6281,7 +6255,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>77</v>
       </c>
@@ -6289,7 +6263,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>78</v>
       </c>
@@ -6297,7 +6271,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>80</v>
       </c>
@@ -6305,7 +6279,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>82</v>
       </c>
@@ -6313,7 +6287,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>84</v>
       </c>
@@ -6321,7 +6295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>86</v>
       </c>
@@ -6329,7 +6303,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>88</v>
       </c>
@@ -6337,7 +6311,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>90</v>
       </c>
@@ -6345,7 +6319,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
@@ -6353,7 +6327,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>93</v>
       </c>
@@ -6361,7 +6335,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>95</v>
       </c>
@@ -6369,7 +6343,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>97</v>
       </c>
@@ -6377,7 +6351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>98</v>
       </c>
@@ -6385,7 +6359,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>100</v>
       </c>
@@ -6393,7 +6367,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>102</v>
       </c>
@@ -6401,7 +6375,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>103</v>
       </c>
@@ -6409,7 +6383,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>105</v>
       </c>
@@ -6417,7 +6391,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>107</v>
       </c>
@@ -6425,7 +6399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>108</v>
       </c>
@@ -6433,7 +6407,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>110</v>
       </c>
@@ -6441,7 +6415,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>112</v>
       </c>
@@ -6449,7 +6423,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>114</v>
       </c>
@@ -6457,7 +6431,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>116</v>
       </c>
@@ -6465,7 +6439,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>118</v>
       </c>
@@ -6473,7 +6447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>119</v>
       </c>
@@ -6481,7 +6455,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>121</v>
       </c>
@@ -6489,7 +6463,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>123</v>
       </c>
@@ -6513,17 +6487,17 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -6531,15 +6505,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="D2" s="36" t="s">
+      <c r="B2" s="31"/>
+      <c r="D2" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="34"/>
       <c r="G2" s="4" t="s">
         <v>127</v>
       </c>
@@ -6551,11 +6525,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="28"/>
       <c r="D3" s="4" t="s">
         <v>130</v>
       </c>
@@ -6577,7 +6551,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>132</v>
       </c>
@@ -6609,7 +6583,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>130</v>
       </c>
@@ -6641,7 +6615,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>137</v>
       </c>
@@ -6673,7 +6647,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="7">
         <v>75</v>
@@ -6702,7 +6676,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="7">
         <v>75</v>
@@ -6721,7 +6695,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="8">
         <v>75</v>
@@ -6740,11 +6714,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="30"/>
       <c r="D10" s="4" t="s">
         <v>145</v>
       </c>
@@ -6756,7 +6730,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>146</v>
       </c>
@@ -6778,7 +6752,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>148</v>
       </c>
@@ -6800,7 +6774,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>151</v>
       </c>
@@ -6822,9 +6796,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="D14" s="10" t="s">
         <v>153</v>
       </c>
@@ -6836,7 +6810,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D15" s="10" t="s">
         <v>154</v>
       </c>
@@ -6872,13 +6846,13 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -6886,67 +6860,67 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="34"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="B2" s="31"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="31"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="33"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>151</v>
       </c>
@@ -6963,6 +6937,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="a8350953-5035-4605-98e3-8e6c7df9a521" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF80D9A6269227449AA8D255FAA608E3" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f2d3fa0e209eea9a9d70d5fc66e40d5d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a8350953-5035-4605-98e3-8e6c7df9a521" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ed19117d077776b385e144c363cdab7" ns2:_="">
     <xsd:import namespace="a8350953-5035-4605-98e3-8e6c7df9a521"/>
@@ -7088,37 +7079,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="a8350953-5035-4605-98e3-8e6c7df9a521" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02BA43FF-EEB3-4AFD-A440-2F657F6AA395}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2042B815-06AE-4066-BD1C-431949E0191E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a8350953-5035-4605-98e3-8e6c7df9a521"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7142,9 +7106,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2042B815-06AE-4066-BD1C-431949E0191E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02BA43FF-EEB3-4AFD-A440-2F657F6AA395}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a8350953-5035-4605-98e3-8e6c7df9a521"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>